--- a/Demo Esports.xlsx
+++ b/Demo Esports.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiofi\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiofi\Desktop\CC\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1502644-71FF-4FE2-9853-4EB2F0824558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56036271-8192-4528-857F-42EA0F957EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DE675700-4DAB-490E-80A2-7BAF9CED6B2F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>$Matches</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>63b42e955fb4f29091824488</t>
+  </si>
+  <si>
+    <t>$Link</t>
   </si>
 </sst>
 </file>
@@ -429,7 +432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97AAFB6E-3B87-4244-BF22-9CC7F2EFCEAD}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -442,10 +445,11 @@
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="24.5546875" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" customWidth="1"/>
+    <col min="6" max="6" width="33.21875" customWidth="1"/>
+    <col min="7" max="7" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,10 +466,13 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -481,21 +488,21 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -512,17 +519,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>12</v>
       </c>

--- a/Demo Esports.xlsx
+++ b/Demo Esports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiofi\Desktop\CC\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56036271-8192-4528-857F-42EA0F957EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838A7D74-BD89-4E18-9EBB-A69B7F3221A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DE675700-4DAB-490E-80A2-7BAF9CED6B2F}"/>
   </bookViews>
@@ -62,32 +62,40 @@
     <t>$Match2</t>
   </si>
   <si>
-    <t>63b42d8f5fb4f2909182431f</t>
-  </si>
-  <si>
-    <t>63b42d9d5fb4f29091824330</t>
-  </si>
-  <si>
-    <t>63b42dd15fb4f29091824347</t>
-  </si>
-  <si>
-    <t>63b42dde5fb4f29091824364</t>
-  </si>
-  <si>
-    <t>63b42e955fb4f29091824488</t>
-  </si>
-  <si>
     <t>$Link</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>pqr</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/shuffle-the-array/submissions/870760796/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -110,16 +118,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -432,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97AAFB6E-3B87-4244-BF22-9CC7F2EFCEAD}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -466,7 +477,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -488,18 +499,18 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
-        <v>9</v>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -507,7 +518,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2">
         <v>45285</v>
@@ -518,23 +529,25 @@
       <c r="E5">
         <v>1</v>
       </c>
+      <c r="F5" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{C50D2442-41E8-459C-BCBB-85252ADB90C9}"/>
+    <hyperlink ref="F5" r:id="rId2" xr:uid="{DD7AE1C6-E7D8-4EBA-9CD4-7A4EC503619F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Demo Esports.xlsx
+++ b/Demo Esports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiofi\Desktop\CC\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838A7D74-BD89-4E18-9EBB-A69B7F3221A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2AD23A-943B-42A4-9232-E8B03FE3B3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DE675700-4DAB-490E-80A2-7BAF9CED6B2F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>$Matches</t>
   </si>
@@ -65,19 +65,31 @@
     <t>$Link</t>
   </si>
   <si>
-    <t>xyz</t>
-  </si>
-  <si>
-    <t>def</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>pqr</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/shuffle-the-array/submissions/870760796/</t>
+  </si>
+  <si>
+    <t>S8U</t>
+  </si>
+  <si>
+    <t>Rev</t>
+  </si>
+  <si>
+    <t>Che</t>
+  </si>
+  <si>
+    <t>Eni</t>
+  </si>
+  <si>
+    <t>$Match3</t>
+  </si>
+  <si>
+    <t>$Match4</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>God</t>
   </si>
 </sst>
 </file>
@@ -443,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97AAFB6E-3B87-4244-BF22-9CC7F2EFCEAD}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,7 +503,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2">
-        <v>45284</v>
+        <v>44950</v>
       </c>
       <c r="D2" s="1">
         <v>0.85416666666666663</v>
@@ -500,17 +512,17 @@
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -521,7 +533,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="2">
-        <v>45285</v>
+        <v>44951</v>
       </c>
       <c r="D5" s="3">
         <v>0.85416666666666663</v>
@@ -530,23 +542,85 @@
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44586</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44586</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{C50D2442-41E8-459C-BCBB-85252ADB90C9}"/>
     <hyperlink ref="F5" r:id="rId2" xr:uid="{DD7AE1C6-E7D8-4EBA-9CD4-7A4EC503619F}"/>
+    <hyperlink ref="F8" r:id="rId3" xr:uid="{4C88FD51-E357-4C97-B9A8-F71A65270A48}"/>
+    <hyperlink ref="F11" r:id="rId4" xr:uid="{A77900FA-4DAE-4CE0-B688-73B289F8D058}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
